--- a/Demo/src/test/resources/TestData/TestData.xlsx
+++ b/Demo/src/test/resources/TestData/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="115">
   <si>
     <t>TestCases</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>United States of America</t>
+  </si>
+  <si>
+    <t>450593855</t>
   </si>
 </sst>
 </file>
@@ -1527,12 +1530,12 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" customWidth="1"/>
@@ -1581,8 +1584,8 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1">
-      <c r="A2" s="12">
-        <v>450593832</v>
+      <c r="A2" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>109</v>
